--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560355/JX560355_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560355/JX560355_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89319540059</v>
+        <v>45441.83346139137</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1714_1718del']</t>
+          <t>['1851_1898del', '1863_1965del', '1822_1859del', '1786_1896insaactgggggggtgcatctaaacttatagttggtatagtactaggagagtttgaacgcttgcggcgtgcttgtttcgaggtggctaccgttgcttcggcgagataaaacgt', '1888_1904del']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89319542955</v>
+        <v>45441.83346142031</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['655_660insggttc']</t>
+          <t>['650_667insaccttgggtttaggaac', '690_823insggtgggttagtccgcagcccgcgctaatgcgccgatgcggaaaatcatgtagagtctcctatgtctagcaagaggtggctatctcgcggagcaaaccggtaacggtccacgctcaagtgtggcaagtcctctc', '686_729insccggacccggatcagttttaggggtatcactagggaggttcgt', '667_692del', '652_781insggggatcaatatgctagcctaacccaacacatcggttgcccgagggagaacgggaagtgcagcacgtcatcggcaagtggtgccaaaatatacgattagtcagctcgcactcctacctagacatggatt']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.8931954469</v>
+        <v>45441.83346144346</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['3519_3521insga']</t>
+          <t>['3496_3513del', '3479_3559insgttggaacgtctacccctacacagacgttgcgccgagtcacacgatcatttctgtaagacgtcccatggccgagaaggat', '3507_3580insgagcgtgtacgcgaagtaaataaaaggttgggaacaagaattataatagtgccgatgcatcagagcctatgta', '3524_3672del', '3550_3677instctgccccattcgtgttagccatgggttcatatgcttcgttggtgagcagtctataattgacaggagttgcactatattagaggcttatcgcgcatactcgagtgagcggggcaagtaaatctctgc']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89319557222</v>
+        <v>45441.83346146659</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1725_1726insa']</t>
+          <t>['1773_1865del', '1800_1906del', '1821_1937insacttcggccccgtaacaaggaggaattaatcgactctaatggagaaccgtgacgacatactctttttcataactcttaagagtacgtctttacttttctttgacacaatgggagtg', '1678_1713del', '1903_1993del']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['626_628insgg']</t>
+          <t>['679_722insgttaacgctaatccgtctctcagcagtcgatacctcaagaccc', '648_704del', '629_661del', '670_689insctgcttgttcgtatgaccc', '648_792insgcagcggtgcaagatcaccaaccccaccaagacgattccagttggacatctggtgcggagcctttagtcagcccttttattgaaacgcttcttgaaagggacctcttctaagtgagggatccgacactacgtaactgcacaaca']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89319559537</v>
+        <v>45441.83346148975</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1900c&gt;a']</t>
+          <t>['1770_1799del', '1776_1819del', '1845_1901del', '1815_1832del', '1838_1927insctcacttgaccggtttcgcacgcataggggggacggctaccaatcagatgaataaaacccgactcttacgactgaccactaccaagtgc']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['3549_3550insg']</t>
+          <t>['3550_3585insttgtgctccgatctgctatgagatagtttgctacg', '3548_3657del', '3523_3637inscatctaagcatcgacgcctagaaacgggatttatgcaatcggaaaaagttgtatattccctccgcgtgagtttctgatggtgatcgtgttagcaggcatgatcaacctgtaact', '3565_3672del', '3567_3647insggatcctggggcctacgccactatggtctcggtcggttggtaaagcctgggaacacttacgcagtcctagcttagcgtat']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.8931956185</v>
+        <v>45441.83346151291</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['672_675inscga']</t>
+          <t>['616_686insgcaatttgaagaacgctccgatttgctttcgtattaaaggctcactcaccgttgagcctccgtgtccgct', '632_722del', '677_768del', '699_726insacgcaagcagttcggatgcttgatcca', '675_790instgtagggagattcaaccgtcgtaatatgataccgttgagttttttcgagctacggtggacgctggaagatgtgagcctgtgatttcccaccaatgccttagtgtcgaaagtccgc']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['3544_3547del']</t>
+          <t>['3509_3523del', '3564_3589del', '3548_3600del', '3560_3676instgaacgcatcggagagactattgtagagtcgaaacgtacgcgcaaaaggttggaacaaccgttccagtacgttgccggtgccacagtaactaccagtaggtatcgctgggaaaacc', '3469_3501del']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89319563586</v>
+        <v>45441.83346153604</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1760t&gt;a']</t>
+          <t>['1810_1842inscgcttataaacatgttttgtcactgtacggat', '1792_1919del', '1683_1738del', '1787_1934del', '1833_1866del']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['602_604del']</t>
+          <t>['606_716inscgaaaaaatcaccctacccaaagagccttctcaggttcaaacgcataagttactatcgcatgtattctggatcctagatctagacagaacatacggttccttctttacgc', '639_661instacgggacgcagcgtgggaatc', '669_772del', '695_811del', '695_790del']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['3497_3499insca']</t>
+          <t>['3498_3611instgacgcagtatgcgtccaagcggtaaactcacgatcgtactcctctgctagagcgctggtctaagatgttgctccgaaggcggaaggacgcgggaattctatcgacgtctggc', '3521_3539inscagaaggtttattgtttc', '3469_3523insttctgcacgtttctctccgcctcaatccttctcaccgcgaagtagagtcgcgcg', '3498_3645insctgcggacaagatagcctggctcatcatacaaagttgacgttgtgccggattttctgcgctaaaccgggccttatgttagtctcctttcccctatttaaccagtgctactggcgaaactccatcttcggagtaatcaaagggtgcgc', '3500_3529del']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89319565904</v>
+        <v>45441.83346155341</v>
       </c>
     </row>
   </sheetData>
